--- a/src/main/resources/template/excel/reportingTitleTable.xlsx
+++ b/src/main/resources/template/excel/reportingTitleTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="23233" windowHeight="9583"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -74,7 +74,7 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="20"/>
       <name val="Tahoma"/>
       <charset val="0"/>
     </font>
@@ -101,6 +101,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -108,9 +116,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,29 +146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -154,9 +154,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,9 +176,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,6 +199,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -200,43 +237,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -253,192 +253,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -448,53 +448,55 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,21 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -552,8 +539,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,30 +559,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,16 +579,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,167 +597,140 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1119,19 +1055,19 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I7"/>
+      <selection activeCell="C5" sqref="C5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88990825688073" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="2" width="4.98148148148148" customWidth="1"/>
-    <col min="3" max="3" width="40.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="14.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="13.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="12.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="19.6666666666667" customWidth="1"/>
+    <col min="1" max="2" width="4.98165137614679" customWidth="1"/>
+    <col min="3" max="3" width="40.7798165137615" customWidth="1"/>
+    <col min="4" max="4" width="13.6697247706422" customWidth="1"/>
+    <col min="5" max="5" width="13.7798165137615" customWidth="1"/>
+    <col min="6" max="6" width="14.1100917431193" customWidth="1"/>
+    <col min="7" max="7" width="13.1100917431193" customWidth="1"/>
+    <col min="8" max="8" width="12.7798165137615" customWidth="1"/>
+    <col min="9" max="9" width="19.6697247706422" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:9">
@@ -1151,95 +1087,94 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="10"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:9">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="17"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" ht="75" customHeight="1" spans="1:9">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="17"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:9">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="17"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="A6:B6"/>
